--- a/RPackageSource/inst/extdata/cohort_2.xlsx
+++ b/RPackageSource/inst/extdata/cohort_2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="O:\Users\WHEELE~1\AppData\Local\Temp\6\scp50945\gpfs\gsfs10\users\wheelerwi\COMETS\current_3.0\inst\extdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="O:\Users\WHEELE~1\AppData\Local\Temp\8\scp57168\gpfs\gsfs10\users\wheelerwi\COMETS\current_3.0\inst\extdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19B16147-7F57-42C7-AC32-62CF4461A0A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{055F288C-7283-4512-A890-E3D07DC55CD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-21396" yWindow="1272" windowWidth="17964" windowHeight="7656" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-22200" yWindow="1284" windowWidth="21756" windowHeight="7668" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Metabolites" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="541" uniqueCount="311">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="561" uniqueCount="318">
   <si>
     <t>metabid</t>
   </si>
@@ -963,6 +963,27 @@
   <si>
     <t>Event status (0=non-event, 1=event)</t>
   </si>
+  <si>
+    <t>ACCEPTED_VALUES</t>
+  </si>
+  <si>
+    <t>(0, Inf)</t>
+  </si>
+  <si>
+    <t>0, 1</t>
+  </si>
+  <si>
+    <t>0, 1, 2, 3</t>
+  </si>
+  <si>
+    <t>0, 1, 2, 3, 4</t>
+  </si>
+  <si>
+    <t>0, 1, 2</t>
+  </si>
+  <si>
+    <t>[0, Inf)</t>
+  </si>
 </sst>
 </file>
 
@@ -56849,18 +56870,19 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="122.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>85</v>
       </c>
@@ -56874,10 +56896,13 @@
         <v>88</v>
       </c>
       <c r="E1" t="s">
+        <v>311</v>
+      </c>
+      <c r="F1" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>90</v>
       </c>
@@ -56890,11 +56915,11 @@
       <c r="D2" t="s">
         <v>22</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>93</v>
       </c>
@@ -56907,11 +56932,11 @@
       <c r="D3" t="s">
         <v>22</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>66</v>
       </c>
@@ -56925,10 +56950,13 @@
         <v>97</v>
       </c>
       <c r="E4" t="s">
+        <v>312</v>
+      </c>
+      <c r="F4" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>99</v>
       </c>
@@ -56942,10 +56970,13 @@
         <v>101</v>
       </c>
       <c r="E5" t="s">
+        <v>313</v>
+      </c>
+      <c r="F5" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>102</v>
       </c>
@@ -56958,8 +56989,11 @@
       <c r="D6" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E6" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>104</v>
       </c>
@@ -56972,8 +57006,11 @@
       <c r="D7" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E7" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>106</v>
       </c>
@@ -56986,8 +57023,11 @@
       <c r="D8" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E8" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>108</v>
       </c>
@@ -57000,8 +57040,11 @@
       <c r="D9" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E9" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>110</v>
       </c>
@@ -57014,8 +57057,11 @@
       <c r="D10" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E10" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>112</v>
       </c>
@@ -57028,8 +57074,11 @@
       <c r="D11" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E11" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>114</v>
       </c>
@@ -57042,8 +57091,11 @@
       <c r="D12" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E12" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>116</v>
       </c>
@@ -57057,10 +57109,13 @@
         <v>101</v>
       </c>
       <c r="E13" t="s">
+        <v>316</v>
+      </c>
+      <c r="F13" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>119</v>
       </c>
@@ -57074,10 +57129,13 @@
         <v>101</v>
       </c>
       <c r="E14" t="s">
+        <v>316</v>
+      </c>
+      <c r="F14" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>122</v>
       </c>
@@ -57091,10 +57149,13 @@
         <v>101</v>
       </c>
       <c r="E15" t="s">
+        <v>316</v>
+      </c>
+      <c r="F15" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>125</v>
       </c>
@@ -57107,8 +57168,11 @@
       <c r="D16" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E16" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>79</v>
       </c>
@@ -57121,8 +57185,11 @@
       <c r="D17" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E17" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>128</v>
       </c>
@@ -57136,10 +57203,13 @@
         <v>101</v>
       </c>
       <c r="E18" t="s">
+        <v>313</v>
+      </c>
+      <c r="F18" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>81</v>
       </c>
@@ -57153,10 +57223,13 @@
         <v>97</v>
       </c>
       <c r="E19" t="s">
+        <v>317</v>
+      </c>
+      <c r="F19" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>133</v>
       </c>
@@ -57170,10 +57243,13 @@
         <v>97</v>
       </c>
       <c r="E20" t="s">
+        <v>312</v>
+      </c>
+      <c r="F20" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>136</v>
       </c>
@@ -57187,10 +57263,13 @@
         <v>101</v>
       </c>
       <c r="E21" t="s">
+        <v>313</v>
+      </c>
+      <c r="F21" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>137</v>
       </c>
@@ -57204,6 +57283,9 @@
         <v>101</v>
       </c>
       <c r="E22" t="s">
+        <v>22</v>
+      </c>
+      <c r="F22" t="s">
         <v>139</v>
       </c>
     </row>

--- a/RPackageSource/inst/extdata/cohort_2.xlsx
+++ b/RPackageSource/inst/extdata/cohort_2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="O:\Users\WHEELE~1\AppData\Local\Temp\8\scp57168\gpfs\gsfs10\users\wheelerwi\COMETS\current_3.0\inst\extdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="O:\Users\wheelerwi\Desktop\temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{055F288C-7283-4512-A890-E3D07DC55CD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35AB169C-09F6-443F-BBE0-53237BBB885A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-22200" yWindow="1284" windowWidth="21756" windowHeight="7668" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-3276" yWindow="804" windowWidth="21564" windowHeight="11088" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Metabolites" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="561" uniqueCount="318">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="284">
   <si>
     <t>metabid</t>
   </si>
@@ -228,9 +228,6 @@
     <t>age</t>
   </si>
   <si>
-    <t>gender</t>
-  </si>
-  <si>
     <t>smoking</t>
   </si>
   <si>
@@ -313,9 +310,6 @@
   </si>
   <si>
     <t>column header in metabolites sheet</t>
-  </si>
-  <si>
-    <t>Age at Entry</t>
   </si>
   <si>
     <t>continuous</t>
@@ -423,16 +417,10 @@
     <t>Number of office visits</t>
   </si>
   <si>
-    <t>Included for poisson regression</t>
-  </si>
-  <si>
     <t>time</t>
   </si>
   <si>
     <t>Time to event</t>
-  </si>
-  <si>
-    <t>Included for survival model</t>
   </si>
   <si>
     <t>event</t>
@@ -442,9 +430,6 @@
   </si>
   <si>
     <t>Group variable of the matched sets</t>
-  </si>
-  <si>
-    <t>Included for conditional logistic regression</t>
   </si>
   <si>
     <t>MODEL</t>
@@ -474,64 +459,19 @@
     <t>MODEL_TYPE</t>
   </si>
   <si>
-    <t>1 Gender adjusted</t>
-  </si>
-  <si>
     <t>All metabolites</t>
   </si>
   <si>
     <t>corr (spearman)</t>
   </si>
   <si>
-    <t>1.2 Gender adjusted Min 10 Subjects</t>
-  </si>
-  <si>
     <t>corr (user-defined)</t>
-  </si>
-  <si>
-    <t>2 Multivariable adjusted</t>
   </si>
   <si>
     <t>smk_grp bmi_grp race_grp educ_grp alc_grp  horm_curr</t>
   </si>
   <si>
-    <t>2.1 Gender stratified</t>
-  </si>
-  <si>
-    <t>smk_grp bmi_grp race_grp educ_grp alc_grp horm_curr</t>
-  </si>
-  <si>
-    <t>2.2 BMI stratified</t>
-  </si>
-  <si>
     <t>smk_grp race_grp educ_grp alc_grp horm_curr</t>
-  </si>
-  <si>
-    <t>2.3 Smoking stratified</t>
-  </si>
-  <si>
-    <t>bmi_grp race_grp educ_grp alc_grp horm_curr</t>
-  </si>
-  <si>
-    <t>2.4 Cancer stratified</t>
-  </si>
-  <si>
-    <t>2.5 Heart-disease stratified</t>
-  </si>
-  <si>
-    <t>2.6 Race stratified</t>
-  </si>
-  <si>
-    <t>smk_grp bmi_grp educ_grp alc_grp horm_curr</t>
-  </si>
-  <si>
-    <t>2.7 HT stratified</t>
-  </si>
-  <si>
-    <t>smk_grp bmi_grp race_grp educ_grp alc_grp</t>
-  </si>
-  <si>
-    <t>2.7.1 HT stratified Age &lt; 70</t>
   </si>
   <si>
     <t>female smk_grp bmi_grp race_grp educ_grp alc_grp multivitamin  fasted</t>
@@ -540,34 +480,13 @@
     <t>age &lt; 70</t>
   </si>
   <si>
-    <t>2.8 Age stratified</t>
-  </si>
-  <si>
-    <t>2.9 Case selection stratified</t>
-  </si>
-  <si>
-    <t>3.0 All pairwise metabolites</t>
-  </si>
-  <si>
-    <t>4 Poisson regression</t>
-  </si>
-  <si>
     <t>GLM poisson</t>
-  </si>
-  <si>
-    <t>5 Logistic regression</t>
   </si>
   <si>
     <t>GLM binomial</t>
   </si>
   <si>
-    <t>6 Survival model</t>
-  </si>
-  <si>
     <t>survival (efron)</t>
-  </si>
-  <si>
-    <t>7 Conditional logistic</t>
   </si>
   <si>
     <t>cond logistic (efron)</t>
@@ -727,18 +646,6 @@
     <t>Type of output file: xlsx=Excel worksheet, rda=R object file</t>
   </si>
   <si>
-    <t>output.merge</t>
-  </si>
-  <si>
-    <t>none</t>
-  </si>
-  <si>
-    <t>all, by_function, by_model_type, none</t>
-  </si>
-  <si>
-    <t>How to merge model results: all=merge all model results, by_function=merge model results with same model FUNCTION, by_modelspec=merge model results from same MODELSPEC, none=do not merge model results</t>
-  </si>
-  <si>
     <t>chemEnrich</t>
   </si>
   <si>
@@ -764,24 +671,6 @@
   </si>
   <si>
     <t>method</t>
-  </si>
-  <si>
-    <t>corr (pearson)</t>
-  </si>
-  <si>
-    <t>pearson</t>
-  </si>
-  <si>
-    <t>corr (kendall)</t>
-  </si>
-  <si>
-    <t>kendall</t>
-  </si>
-  <si>
-    <t>*** This overrides the value on row 6 ***</t>
-  </si>
-  <si>
-    <t>linear regression</t>
   </si>
   <si>
     <t>lm</t>
@@ -832,43 +721,10 @@
     <t>binomial</t>
   </si>
   <si>
-    <t>GLM gaussian</t>
-  </si>
-  <si>
     <t>gaussian</t>
   </si>
   <si>
     <t>poisson</t>
-  </si>
-  <si>
-    <t>GLM gamma</t>
-  </si>
-  <si>
-    <t>Gamma</t>
-  </si>
-  <si>
-    <t>GLM inverse_gaussian</t>
-  </si>
-  <si>
-    <t>inverse.gaussian</t>
-  </si>
-  <si>
-    <t>GLM quasi</t>
-  </si>
-  <si>
-    <t>quasi</t>
-  </si>
-  <si>
-    <t>GLM quasi_binomial</t>
-  </si>
-  <si>
-    <t>quasibinomial</t>
-  </si>
-  <si>
-    <t>GLM quasi poisson</t>
-  </si>
-  <si>
-    <t>quasipoisson</t>
   </si>
   <si>
     <t>GLM (user-defined)</t>
@@ -910,15 +766,6 @@
     <t>efron</t>
   </si>
   <si>
-    <t>survival (breslow)</t>
-  </si>
-  <si>
-    <t>breslow</t>
-  </si>
-  <si>
-    <t>survival (exact)</t>
-  </si>
-  <si>
     <t>exact</t>
   </si>
   <si>
@@ -941,18 +788,6 @@
   </si>
   <si>
     <t>clogit</t>
-  </si>
-  <si>
-    <t>cond logistic (breslow)</t>
-  </si>
-  <si>
-    <t>cond logistic (exact)</t>
-  </si>
-  <si>
-    <t>cond logistic (approximate)</t>
-  </si>
-  <si>
-    <t>approximate</t>
   </si>
   <si>
     <t>cond logistic (user-defined)</t>
@@ -984,12 +819,75 @@
   <si>
     <t>[0, Inf)</t>
   </si>
+  <si>
+    <t>Age at Entry (In Years)</t>
+  </si>
+  <si>
+    <t>sex</t>
+  </si>
+  <si>
+    <t>Only missing values encoded as "" will be counted as missing when the data is read in; this also applies to all variables below with a non-blank missing value.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The variable event must be binary, coded as 0 for non-events and 1 for events. </t>
+  </si>
+  <si>
+    <t>The NA ensures that the VARTYPE is set as categorical without having to define actual values.</t>
+  </si>
+  <si>
+    <t>1 Age</t>
+  </si>
+  <si>
+    <t>2 Age Spearman Min 10 Subjects</t>
+  </si>
+  <si>
+    <t>3 Age Multivariable adjusted</t>
+  </si>
+  <si>
+    <t>4 Age Multivariable adjusted stratified</t>
+  </si>
+  <si>
+    <t>5 Age Multivariable adjusted stratified subset</t>
+  </si>
+  <si>
+    <t>6 All pairwise metabolites</t>
+  </si>
+  <si>
+    <t>7 Poisson regression</t>
+  </si>
+  <si>
+    <t>8 Logistic regression</t>
+  </si>
+  <si>
+    <t>9 Survival model</t>
+  </si>
+  <si>
+    <t>10 Conditional logistic</t>
+  </si>
+  <si>
+    <t>#### This is where users can modify default modelChecks for all models</t>
+  </si>
+  <si>
+    <t>#### This is where users can modify default output parameters for all models</t>
+  </si>
+  <si>
+    <t>#### This is where users can override default parameters for R modeling functions.</t>
+  </si>
+  <si>
+    <t>#### These are user-specified models as listed in column MODEL_TYPE in VarMap.  This allows users to override default parameters for R modeling functions (see last section below for all possibilities).</t>
+  </si>
+  <si>
+    <t>The variable time must be non-negative.</t>
+  </si>
+  <si>
+    <t>*** This overrides the value on row 16 ***</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -997,16 +895,44 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -1014,12 +940,114 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1320,7 +1348,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -1653,7 +1681,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -21580,9 +21608,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:T569"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -21592,58 +21622,58 @@
         <v>66</v>
       </c>
       <c r="C1" t="s">
+        <v>264</v>
+      </c>
+      <c r="D1" t="s">
         <v>67</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>68</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>69</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>70</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>71</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>72</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>73</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>74</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>75</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>76</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>77</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>78</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>79</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>80</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>81</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>82</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>83</v>
-      </c>
-      <c r="T1" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.3">
@@ -56872,421 +56902,436 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView topLeftCell="A16" zoomScale="115" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="122.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="50.33203125" customWidth="1"/>
+    <col min="3" max="3" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.77734375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="30.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:6" ht="31.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="F1" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="E1" t="s">
-        <v>311</v>
-      </c>
-      <c r="F1" t="s">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="B2" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="C2" t="s">
-        <v>65</v>
-      </c>
-      <c r="D2" t="s">
+    </row>
+    <row r="3" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="F2" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>93</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="E3" s="12"/>
+      <c r="F3" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="C3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" t="s">
+    </row>
+    <row r="4" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>263</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>257</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A5" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="72" x14ac:dyDescent="0.3">
+      <c r="A6" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>259</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A7" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="F7" s="9"/>
+    </row>
+    <row r="8" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A8" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>261</v>
+      </c>
+      <c r="F8" s="12"/>
+    </row>
+    <row r="9" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A9" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="F9" s="9"/>
+    </row>
+    <row r="10" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A10" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>260</v>
+      </c>
+      <c r="F10" s="12"/>
+    </row>
+    <row r="11" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A11" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>261</v>
+      </c>
+      <c r="F11" s="9"/>
+    </row>
+    <row r="12" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A12" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>261</v>
+      </c>
+      <c r="F12" s="12"/>
+    </row>
+    <row r="13" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A13" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>261</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A14" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>261</v>
+      </c>
+      <c r="F14" s="12" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A15" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>261</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A16" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="E16" s="12" t="s">
+        <v>261</v>
+      </c>
+      <c r="F16" s="12"/>
+    </row>
+    <row r="17" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A17" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>259</v>
+      </c>
+      <c r="F17" s="9"/>
+    </row>
+    <row r="18" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A18" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="E18" s="12" t="s">
+        <v>258</v>
+      </c>
+      <c r="F18" s="12" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A19" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>262</v>
+      </c>
+      <c r="F19" s="9"/>
+    </row>
+    <row r="20" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A20" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="D20" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="E20" s="12" t="s">
+        <v>262</v>
+      </c>
+      <c r="F20" s="12" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A21" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>255</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="F21" s="9" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A22" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="D22" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="E22" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="F3" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>66</v>
-      </c>
-      <c r="B4" t="s">
-        <v>96</v>
-      </c>
-      <c r="C4" t="s">
-        <v>66</v>
-      </c>
-      <c r="D4" t="s">
-        <v>97</v>
-      </c>
-      <c r="E4" t="s">
-        <v>312</v>
-      </c>
-      <c r="F4" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>99</v>
-      </c>
-      <c r="B5" t="s">
-        <v>100</v>
-      </c>
-      <c r="C5" t="s">
-        <v>67</v>
-      </c>
-      <c r="D5" t="s">
-        <v>101</v>
-      </c>
-      <c r="E5" t="s">
-        <v>313</v>
-      </c>
-      <c r="F5" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>102</v>
-      </c>
-      <c r="B6" t="s">
-        <v>103</v>
-      </c>
-      <c r="C6" t="s">
-        <v>68</v>
-      </c>
-      <c r="D6" t="s">
-        <v>101</v>
-      </c>
-      <c r="E6" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>104</v>
-      </c>
-      <c r="B7" t="s">
-        <v>105</v>
-      </c>
-      <c r="C7" t="s">
-        <v>69</v>
-      </c>
-      <c r="D7" t="s">
-        <v>101</v>
-      </c>
-      <c r="E7" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>106</v>
-      </c>
-      <c r="B8" t="s">
-        <v>107</v>
-      </c>
-      <c r="C8" t="s">
-        <v>70</v>
-      </c>
-      <c r="D8" t="s">
-        <v>101</v>
-      </c>
-      <c r="E8" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>108</v>
-      </c>
-      <c r="B9" t="s">
-        <v>109</v>
-      </c>
-      <c r="C9" t="s">
-        <v>71</v>
-      </c>
-      <c r="D9" t="s">
-        <v>101</v>
-      </c>
-      <c r="E9" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>110</v>
-      </c>
-      <c r="B10" t="s">
-        <v>111</v>
-      </c>
-      <c r="C10" t="s">
-        <v>72</v>
-      </c>
-      <c r="D10" t="s">
-        <v>101</v>
-      </c>
-      <c r="E10" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>112</v>
-      </c>
-      <c r="B11" t="s">
-        <v>113</v>
-      </c>
-      <c r="C11" t="s">
-        <v>73</v>
-      </c>
-      <c r="D11" t="s">
-        <v>101</v>
-      </c>
-      <c r="E11" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>114</v>
-      </c>
-      <c r="B12" t="s">
-        <v>115</v>
-      </c>
-      <c r="C12" t="s">
-        <v>74</v>
-      </c>
-      <c r="D12" t="s">
-        <v>101</v>
-      </c>
-      <c r="E12" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>116</v>
-      </c>
-      <c r="B13" t="s">
-        <v>117</v>
-      </c>
-      <c r="C13" t="s">
-        <v>75</v>
-      </c>
-      <c r="D13" t="s">
-        <v>101</v>
-      </c>
-      <c r="E13" t="s">
-        <v>316</v>
-      </c>
-      <c r="F13" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>119</v>
-      </c>
-      <c r="B14" t="s">
-        <v>120</v>
-      </c>
-      <c r="C14" t="s">
-        <v>76</v>
-      </c>
-      <c r="D14" t="s">
-        <v>101</v>
-      </c>
-      <c r="E14" t="s">
-        <v>316</v>
-      </c>
-      <c r="F14" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>122</v>
-      </c>
-      <c r="B15" t="s">
-        <v>123</v>
-      </c>
-      <c r="C15" t="s">
-        <v>77</v>
-      </c>
-      <c r="D15" t="s">
-        <v>101</v>
-      </c>
-      <c r="E15" t="s">
-        <v>316</v>
-      </c>
-      <c r="F15" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>125</v>
-      </c>
-      <c r="B16" t="s">
-        <v>126</v>
-      </c>
-      <c r="C16" t="s">
-        <v>78</v>
-      </c>
-      <c r="D16" t="s">
-        <v>101</v>
-      </c>
-      <c r="E16" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>79</v>
-      </c>
-      <c r="B17" t="s">
-        <v>127</v>
-      </c>
-      <c r="C17" t="s">
-        <v>79</v>
-      </c>
-      <c r="D17" t="s">
-        <v>101</v>
-      </c>
-      <c r="E17" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>128</v>
-      </c>
-      <c r="B18" t="s">
-        <v>129</v>
-      </c>
-      <c r="C18" t="s">
-        <v>80</v>
-      </c>
-      <c r="D18" t="s">
-        <v>101</v>
-      </c>
-      <c r="E18" t="s">
-        <v>313</v>
-      </c>
-      <c r="F18" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>81</v>
-      </c>
-      <c r="B19" t="s">
-        <v>131</v>
-      </c>
-      <c r="C19" t="s">
-        <v>81</v>
-      </c>
-      <c r="D19" t="s">
-        <v>97</v>
-      </c>
-      <c r="E19" t="s">
-        <v>317</v>
-      </c>
-      <c r="F19" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>133</v>
-      </c>
-      <c r="B20" t="s">
-        <v>134</v>
-      </c>
-      <c r="C20" t="s">
-        <v>82</v>
-      </c>
-      <c r="D20" t="s">
-        <v>97</v>
-      </c>
-      <c r="E20" t="s">
-        <v>312</v>
-      </c>
-      <c r="F20" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>136</v>
-      </c>
-      <c r="B21" t="s">
-        <v>310</v>
-      </c>
-      <c r="C21" t="s">
-        <v>83</v>
-      </c>
-      <c r="D21" t="s">
-        <v>101</v>
-      </c>
-      <c r="E21" t="s">
-        <v>313</v>
-      </c>
-      <c r="F21" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>137</v>
-      </c>
-      <c r="B22" t="s">
-        <v>138</v>
-      </c>
-      <c r="C22" t="s">
-        <v>84</v>
-      </c>
-      <c r="D22" t="s">
-        <v>101</v>
-      </c>
-      <c r="E22" t="s">
-        <v>22</v>
-      </c>
-      <c r="F22" t="s">
-        <v>139</v>
+      <c r="F22" s="12" t="s">
+        <v>267</v>
       </c>
     </row>
   </sheetData>
@@ -57297,374 +57342,262 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:I19"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView zoomScale="113" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="38.109375" customWidth="1"/>
+    <col min="2" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="56.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.33203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:9" s="14" customFormat="1" ht="25.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="B1" t="s">
+      <c r="G1" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="C1" t="s">
+      <c r="H1" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="D1" t="s">
+      <c r="I1" s="21" t="s">
         <v>143</v>
       </c>
-      <c r="E1" t="s">
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" s="13" t="s">
+        <v>268</v>
+      </c>
+      <c r="B2" s="13" t="s">
         <v>144</v>
       </c>
-      <c r="F1" t="s">
+      <c r="C2" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="29" t="s">
         <v>145</v>
       </c>
-      <c r="G1" t="s">
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="25" t="s">
         <v>146</v>
       </c>
-      <c r="H1" t="s">
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="I1" t="s">
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="25" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="E5" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="25" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="B2" t="s">
+      <c r="E6" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="F6" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="C2" t="s">
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="25" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="25" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="I2" t="s">
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="25" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="25" t="s">
         <v>152</v>
       </c>
-      <c r="B3" t="s">
-        <v>150</v>
-      </c>
-      <c r="C3" t="s">
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="I3" t="s">
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="H10" s="2"/>
+      <c r="I10" s="25" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="I11" s="25" t="s">
         <v>154</v>
-      </c>
-      <c r="B4" t="s">
-        <v>150</v>
-      </c>
-      <c r="C4" t="s">
-        <v>66</v>
-      </c>
-      <c r="D4" t="s">
-        <v>155</v>
-      </c>
-      <c r="I4" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>156</v>
-      </c>
-      <c r="B5" t="s">
-        <v>150</v>
-      </c>
-      <c r="C5" t="s">
-        <v>66</v>
-      </c>
-      <c r="D5" t="s">
-        <v>157</v>
-      </c>
-      <c r="I5" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>158</v>
-      </c>
-      <c r="B6" t="s">
-        <v>150</v>
-      </c>
-      <c r="C6" t="s">
-        <v>66</v>
-      </c>
-      <c r="D6" t="s">
-        <v>159</v>
-      </c>
-      <c r="E6" t="s">
-        <v>104</v>
-      </c>
-      <c r="I6" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>160</v>
-      </c>
-      <c r="B7" t="s">
-        <v>150</v>
-      </c>
-      <c r="C7" t="s">
-        <v>66</v>
-      </c>
-      <c r="D7" t="s">
-        <v>161</v>
-      </c>
-      <c r="E7" t="s">
-        <v>102</v>
-      </c>
-      <c r="I7" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>162</v>
-      </c>
-      <c r="B8" t="s">
-        <v>150</v>
-      </c>
-      <c r="C8" t="s">
-        <v>66</v>
-      </c>
-      <c r="D8" t="s">
-        <v>157</v>
-      </c>
-      <c r="E8" t="s">
-        <v>119</v>
-      </c>
-      <c r="I8" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>163</v>
-      </c>
-      <c r="B9" t="s">
-        <v>150</v>
-      </c>
-      <c r="C9" t="s">
-        <v>66</v>
-      </c>
-      <c r="D9" t="s">
-        <v>157</v>
-      </c>
-      <c r="E9" t="s">
-        <v>122</v>
-      </c>
-      <c r="I9" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>164</v>
-      </c>
-      <c r="B10" t="s">
-        <v>150</v>
-      </c>
-      <c r="C10" t="s">
-        <v>66</v>
-      </c>
-      <c r="D10" t="s">
-        <v>165</v>
-      </c>
-      <c r="E10" t="s">
-        <v>106</v>
-      </c>
-      <c r="I10" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>166</v>
-      </c>
-      <c r="B11" t="s">
-        <v>150</v>
-      </c>
-      <c r="C11" t="s">
-        <v>66</v>
-      </c>
-      <c r="D11" t="s">
-        <v>167</v>
-      </c>
-      <c r="E11" t="s">
-        <v>114</v>
-      </c>
-      <c r="I11" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>168</v>
-      </c>
-      <c r="B12" t="s">
-        <v>150</v>
-      </c>
-      <c r="C12" t="s">
-        <v>66</v>
-      </c>
-      <c r="D12" t="s">
-        <v>169</v>
-      </c>
-      <c r="E12" t="s">
-        <v>114</v>
-      </c>
-      <c r="F12" t="s">
-        <v>170</v>
-      </c>
-      <c r="I12" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>171</v>
-      </c>
-      <c r="B13" t="s">
-        <v>150</v>
-      </c>
-      <c r="C13" t="s">
-        <v>66</v>
-      </c>
-      <c r="D13" t="s">
-        <v>157</v>
-      </c>
-      <c r="E13" t="s">
-        <v>79</v>
-      </c>
-      <c r="I13" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>172</v>
-      </c>
-      <c r="B14" t="s">
-        <v>150</v>
-      </c>
-      <c r="C14" t="s">
-        <v>66</v>
-      </c>
-      <c r="D14" t="s">
-        <v>157</v>
-      </c>
-      <c r="E14" t="s">
-        <v>128</v>
-      </c>
-      <c r="I14" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>173</v>
-      </c>
-      <c r="B15" t="s">
-        <v>150</v>
-      </c>
-      <c r="C15" t="s">
-        <v>150</v>
-      </c>
-      <c r="I15" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>174</v>
-      </c>
-      <c r="B16" t="s">
-        <v>81</v>
-      </c>
-      <c r="C16" t="s">
-        <v>150</v>
-      </c>
-      <c r="D16" t="s">
-        <v>66</v>
-      </c>
-      <c r="I16" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>176</v>
-      </c>
-      <c r="B17" t="s">
-        <v>128</v>
-      </c>
-      <c r="C17" t="s">
-        <v>150</v>
-      </c>
-      <c r="D17" t="s">
-        <v>66</v>
-      </c>
-      <c r="I17" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>178</v>
-      </c>
-      <c r="B18" t="s">
-        <v>136</v>
-      </c>
-      <c r="C18" t="s">
-        <v>150</v>
-      </c>
-      <c r="D18" t="s">
-        <v>66</v>
-      </c>
-      <c r="G18" t="s">
-        <v>133</v>
-      </c>
-      <c r="I18" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>180</v>
-      </c>
-      <c r="B19" t="s">
-        <v>128</v>
-      </c>
-      <c r="C19" t="s">
-        <v>150</v>
-      </c>
-      <c r="D19" t="s">
-        <v>66</v>
-      </c>
-      <c r="H19" t="s">
-        <v>137</v>
-      </c>
-      <c r="I19" t="s">
-        <v>181</v>
       </c>
     </row>
   </sheetData>
@@ -57675,784 +57608,710 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:F61"/>
+  <dimension ref="A1:F49"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26:XFD26"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="26.77734375" style="16" customWidth="1"/>
+    <col min="2" max="2" width="11.44140625" style="16"/>
+    <col min="3" max="3" width="22.33203125" style="16" customWidth="1"/>
+    <col min="4" max="4" width="14.6640625" style="16" customWidth="1"/>
+    <col min="5" max="5" width="43.44140625" style="16" customWidth="1"/>
+    <col min="6" max="6" width="62.44140625" style="16" customWidth="1"/>
+    <col min="7" max="16384" width="11.44140625" style="16"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>148</v>
-      </c>
-      <c r="B1" t="s">
+    <row r="1" spans="1:6" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>155</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>156</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>157</v>
+      </c>
+      <c r="E1" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="F1" s="15" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="20" t="s">
+        <v>281</v>
+      </c>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="23" t="s">
+        <v>145</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="F3" s="7"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="24" t="s">
+        <v>146</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="24"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A6" s="24" t="s">
+        <v>152</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="F6" s="6"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="24" t="s">
+        <v>151</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+    </row>
+    <row r="8" spans="1:6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="25" t="s">
+        <v>153</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="D8" s="26" t="s">
+        <v>244</v>
+      </c>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+    </row>
+    <row r="9" spans="1:6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="27" t="s">
+        <v>154</v>
+      </c>
+      <c r="B9" s="22" t="s">
+        <v>252</v>
+      </c>
+      <c r="C9" s="22" t="s">
+        <v>213</v>
+      </c>
+      <c r="D9" s="28" t="s">
+        <v>244</v>
+      </c>
+      <c r="E9" s="22"/>
+      <c r="F9" s="22"/>
+    </row>
+    <row r="10" spans="1:6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="1"/>
+      <c r="D10" s="17"/>
+    </row>
+    <row r="11" spans="1:6" customFormat="1" ht="31.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="19" t="s">
+        <v>278</v>
+      </c>
+      <c r="D11" s="17"/>
+    </row>
+    <row r="12" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A12" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A14" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="B17" s="10"/>
+      <c r="C17" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="F17" s="10" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="43.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="19" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="C1" t="s">
+      <c r="B20" s="7"/>
+      <c r="C20" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D20" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E20" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F20" s="7" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    <row r="21" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A21" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="B21" s="6"/>
+      <c r="C21" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D21" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E21" s="6" t="s">
         <v>189</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F21" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="F2" t="s">
+    </row>
+    <row r="22" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A22" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="B22" s="6"/>
+      <c r="C22" s="6" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>187</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="D22" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E22" s="6" t="s">
         <v>193</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F22" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="F3" t="s">
+    </row>
+    <row r="23" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A23" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="B23" s="6"/>
+      <c r="C23" s="6" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>187</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="D23" s="6"/>
+      <c r="E23" s="6" t="s">
         <v>196</v>
       </c>
-      <c r="D4" t="s">
+      <c r="F23" s="6" t="s">
         <v>197</v>
       </c>
-      <c r="E4" t="s">
+    </row>
+    <row r="24" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A24" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="B24" s="6"/>
+      <c r="C24" s="6" t="s">
         <v>198</v>
       </c>
-      <c r="F4" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>187</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="D24" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E24" s="6" t="s">
         <v>199</v>
       </c>
-      <c r="D5" t="s">
-        <v>197</v>
-      </c>
-      <c r="E5" t="s">
-        <v>198</v>
-      </c>
-      <c r="F5" t="s">
+      <c r="F24" s="6" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>187</v>
-      </c>
-      <c r="C6" t="s">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="B25" s="6"/>
+      <c r="C25" s="6" t="s">
         <v>201</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D25" s="6" t="s">
         <v>202</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E25" s="6" t="s">
         <v>203</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F25" s="6" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>187</v>
-      </c>
-      <c r="C7" t="s">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="B26" s="6"/>
+      <c r="C26" s="6" t="s">
         <v>205</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D26" s="6" t="s">
         <v>206</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E26" s="6" t="s">
         <v>207</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F26" s="6" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="B27" s="10"/>
+      <c r="C27" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D27" s="10" t="s">
         <v>210</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E27" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="F27" s="10" t="s">
         <v>211</v>
       </c>
-      <c r="E9" t="s">
-        <v>212</v>
-      </c>
-      <c r="F9" t="s">
+    </row>
+    <row r="30" spans="1:6" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="19" t="s">
+        <v>280</v>
+      </c>
+      <c r="D30" s="17"/>
+    </row>
+    <row r="31" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A31" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32" s="6"/>
+      <c r="B32" s="6"/>
+      <c r="C32" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="D32" s="6"/>
+      <c r="E32" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="F32" s="6" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A33" s="6"/>
+      <c r="B33" s="6"/>
+      <c r="C33" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="E33" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="F33" s="6" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34" s="6"/>
+      <c r="B34" s="6"/>
+      <c r="C34" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="D34" s="6"/>
+      <c r="E34" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="F34" s="6" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A35" s="6"/>
+      <c r="B35" s="6"/>
+      <c r="C35" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="D35" s="6"/>
+      <c r="E35" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="F35" s="6" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A36" s="6"/>
+      <c r="B36" s="6"/>
+      <c r="C36" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="E36" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="F36" s="6" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A37" s="6"/>
+      <c r="B37" s="6"/>
+      <c r="C37" s="6"/>
+      <c r="D37" s="6"/>
+      <c r="E37" s="6"/>
+      <c r="F37" s="6"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A38" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="B38" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="D38" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="E38" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="F38" s="7"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A39" s="6"/>
+      <c r="B39" s="6"/>
+      <c r="C39" s="6" t="s">
+        <v>248</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="E39" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="F39" s="6"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A40" s="6"/>
+      <c r="B40" s="6"/>
+      <c r="C40" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="D40" s="6"/>
+      <c r="E40" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="F40" s="6"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A41" s="6"/>
+      <c r="B41" s="6"/>
+      <c r="C41" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="D41" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="E41" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="F41" s="6"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A42" s="6"/>
+      <c r="B42" s="6"/>
+      <c r="C42" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="D42" s="6"/>
+      <c r="E42" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="F42" s="6"/>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A43" s="10"/>
+      <c r="B43" s="10"/>
+      <c r="C43" s="10"/>
+      <c r="D43" s="10"/>
+      <c r="E43" s="10"/>
+      <c r="F43" s="10"/>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A44" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="C44" s="6" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>209</v>
-      </c>
-      <c r="C10" t="s">
+      <c r="D44" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="E44" s="6" t="s">
+        <v>254</v>
+      </c>
+      <c r="F44" s="6"/>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A45" s="6"/>
+      <c r="B45" s="6"/>
+      <c r="C45" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="D45" s="6"/>
+      <c r="E45" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="F45" s="6"/>
+    </row>
+    <row r="46" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A46" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="B46" s="7" t="s">
         <v>214</v>
       </c>
-      <c r="D10" t="s">
-        <v>215</v>
-      </c>
-      <c r="E10" t="s">
+      <c r="C46" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="F10" t="s">
+      <c r="D46" s="7" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>209</v>
-      </c>
-      <c r="C11" t="s">
+      <c r="E46" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="F46" s="7" t="s">
         <v>218</v>
       </c>
-      <c r="D11" t="s">
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A47" s="6"/>
+      <c r="B47" s="6"/>
+      <c r="C47" s="6" t="s">
         <v>219</v>
       </c>
-      <c r="E11" t="s">
+      <c r="D47" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="E47" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="F47" s="6" t="s">
         <v>220</v>
       </c>
-      <c r="F11" t="s">
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A48" s="6"/>
+      <c r="B48" s="6"/>
+      <c r="C48" s="6" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>209</v>
-      </c>
-      <c r="C12" t="s">
+      <c r="D48" s="6"/>
+      <c r="E48" s="6" t="s">
         <v>222</v>
       </c>
-      <c r="E12" t="s">
+      <c r="F48" s="6" t="s">
         <v>223</v>
       </c>
-      <c r="F12" t="s">
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A49" s="10"/>
+      <c r="B49" s="10"/>
+      <c r="C49" s="10" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>209</v>
-      </c>
-      <c r="C13" t="s">
+      <c r="D49" s="10"/>
+      <c r="E49" s="10" t="s">
         <v>225</v>
       </c>
-      <c r="D13" t="s">
-        <v>1</v>
-      </c>
-      <c r="E13" t="s">
+      <c r="F49" s="10" t="s">
         <v>226</v>
-      </c>
-      <c r="F13" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>209</v>
-      </c>
-      <c r="C14" t="s">
-        <v>228</v>
-      </c>
-      <c r="D14" t="s">
-        <v>229</v>
-      </c>
-      <c r="E14" t="s">
-        <v>230</v>
-      </c>
-      <c r="F14" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>209</v>
-      </c>
-      <c r="C15" t="s">
-        <v>232</v>
-      </c>
-      <c r="D15" t="s">
-        <v>233</v>
-      </c>
-      <c r="E15" t="s">
-        <v>234</v>
-      </c>
-      <c r="F15" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>209</v>
-      </c>
-      <c r="C16" t="s">
-        <v>236</v>
-      </c>
-      <c r="D16" t="s">
-        <v>237</v>
-      </c>
-      <c r="E16" t="s">
-        <v>238</v>
-      </c>
-      <c r="F16" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>209</v>
-      </c>
-      <c r="C17" t="s">
-        <v>240</v>
-      </c>
-      <c r="D17" t="s">
-        <v>241</v>
-      </c>
-      <c r="E17" t="s">
-        <v>194</v>
-      </c>
-      <c r="F17" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>151</v>
-      </c>
-      <c r="B20" t="s">
-        <v>243</v>
-      </c>
-      <c r="C20" t="s">
-        <v>244</v>
-      </c>
-      <c r="D20" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>245</v>
-      </c>
-      <c r="B21" t="s">
-        <v>243</v>
-      </c>
-      <c r="C21" t="s">
-        <v>244</v>
-      </c>
-      <c r="D21" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>247</v>
-      </c>
-      <c r="B22" t="s">
-        <v>243</v>
-      </c>
-      <c r="C22" t="s">
-        <v>244</v>
-      </c>
-      <c r="D22" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>153</v>
-      </c>
-      <c r="B23" t="s">
-        <v>243</v>
-      </c>
-      <c r="C23" t="s">
-        <v>244</v>
-      </c>
-      <c r="D23" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C24" t="s">
-        <v>201</v>
-      </c>
-      <c r="D24" t="s">
-        <v>206</v>
-      </c>
-      <c r="E24" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>250</v>
-      </c>
-      <c r="B26" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>252</v>
-      </c>
-      <c r="B27" t="s">
-        <v>251</v>
-      </c>
-      <c r="C27" t="s">
-        <v>253</v>
-      </c>
-      <c r="D27" t="s">
-        <v>254</v>
-      </c>
-      <c r="E27" t="s">
-        <v>194</v>
-      </c>
-      <c r="F27" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C28" t="s">
-        <v>256</v>
-      </c>
-      <c r="D28" t="s">
-        <v>197</v>
-      </c>
-      <c r="E28" t="s">
-        <v>198</v>
-      </c>
-      <c r="F28" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C29" t="s">
-        <v>258</v>
-      </c>
-      <c r="E29" t="s">
-        <v>259</v>
-      </c>
-      <c r="F29" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C30" t="s">
-        <v>261</v>
-      </c>
-      <c r="E30" t="s">
-        <v>262</v>
-      </c>
-      <c r="F30" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>177</v>
-      </c>
-      <c r="B32" t="s">
-        <v>264</v>
-      </c>
-      <c r="C32" t="s">
-        <v>265</v>
-      </c>
-      <c r="D32" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>267</v>
-      </c>
-      <c r="B33" t="s">
-        <v>264</v>
-      </c>
-      <c r="C33" t="s">
-        <v>265</v>
-      </c>
-      <c r="D33" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>175</v>
-      </c>
-      <c r="B34" t="s">
-        <v>264</v>
-      </c>
-      <c r="C34" t="s">
-        <v>265</v>
-      </c>
-      <c r="D34" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>270</v>
-      </c>
-      <c r="B35" t="s">
-        <v>264</v>
-      </c>
-      <c r="C35" t="s">
-        <v>265</v>
-      </c>
-      <c r="D35" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
-        <v>272</v>
-      </c>
-      <c r="B36" t="s">
-        <v>264</v>
-      </c>
-      <c r="C36" t="s">
-        <v>265</v>
-      </c>
-      <c r="D36" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
-        <v>274</v>
-      </c>
-      <c r="B37" t="s">
-        <v>264</v>
-      </c>
-      <c r="C37" t="s">
-        <v>265</v>
-      </c>
-      <c r="D37" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
-        <v>276</v>
-      </c>
-      <c r="B38" t="s">
-        <v>264</v>
-      </c>
-      <c r="C38" t="s">
-        <v>265</v>
-      </c>
-      <c r="D38" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>278</v>
-      </c>
-      <c r="B39" t="s">
-        <v>264</v>
-      </c>
-      <c r="C39" t="s">
-        <v>265</v>
-      </c>
-      <c r="D39" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>280</v>
-      </c>
-      <c r="B40" t="s">
-        <v>264</v>
-      </c>
-      <c r="C40" t="s">
-        <v>265</v>
-      </c>
-      <c r="D40" t="s">
-        <v>268</v>
-      </c>
-      <c r="E40" t="s">
-        <v>281</v>
-      </c>
-      <c r="F40" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C41" t="s">
-        <v>283</v>
-      </c>
-      <c r="E41" t="s">
-        <v>284</v>
-      </c>
-      <c r="F41" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C42" t="s">
-        <v>286</v>
-      </c>
-      <c r="D42" t="s">
-        <v>287</v>
-      </c>
-      <c r="E42" t="s">
-        <v>288</v>
-      </c>
-      <c r="F42" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C43" t="s">
-        <v>261</v>
-      </c>
-      <c r="E43" t="s">
-        <v>262</v>
-      </c>
-      <c r="F43" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C44" t="s">
-        <v>258</v>
-      </c>
-      <c r="E44" t="s">
-        <v>259</v>
-      </c>
-      <c r="F44" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C45" t="s">
-        <v>256</v>
-      </c>
-      <c r="D45" t="s">
-        <v>197</v>
-      </c>
-      <c r="E45" t="s">
-        <v>198</v>
-      </c>
-      <c r="F45" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A47" t="s">
-        <v>179</v>
-      </c>
-      <c r="B47" t="s">
-        <v>290</v>
-      </c>
-      <c r="C47" t="s">
-        <v>291</v>
-      </c>
-      <c r="D47" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A48" t="s">
-        <v>293</v>
-      </c>
-      <c r="B48" t="s">
-        <v>290</v>
-      </c>
-      <c r="C48" t="s">
-        <v>291</v>
-      </c>
-      <c r="D48" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A49" t="s">
-        <v>295</v>
-      </c>
-      <c r="B49" t="s">
-        <v>290</v>
-      </c>
-      <c r="C49" t="s">
-        <v>291</v>
-      </c>
-      <c r="D49" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
-        <v>297</v>
-      </c>
-      <c r="B50" t="s">
-        <v>290</v>
-      </c>
-      <c r="C50" t="s">
-        <v>291</v>
-      </c>
-      <c r="D50" t="s">
-        <v>292</v>
-      </c>
-      <c r="E50" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C51" t="s">
-        <v>299</v>
-      </c>
-      <c r="D51" t="s">
-        <v>300</v>
-      </c>
-      <c r="E51" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C52" t="s">
-        <v>258</v>
-      </c>
-      <c r="E52" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C53" t="s">
-        <v>256</v>
-      </c>
-      <c r="D53" t="s">
-        <v>197</v>
-      </c>
-      <c r="E53" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C54" t="s">
-        <v>301</v>
-      </c>
-      <c r="E54" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A56" t="s">
-        <v>181</v>
-      </c>
-      <c r="B56" t="s">
-        <v>303</v>
-      </c>
-      <c r="C56" t="s">
-        <v>244</v>
-      </c>
-      <c r="D56" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A57" t="s">
-        <v>304</v>
-      </c>
-      <c r="B57" t="s">
-        <v>303</v>
-      </c>
-      <c r="C57" t="s">
-        <v>244</v>
-      </c>
-      <c r="D57" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A58" t="s">
-        <v>305</v>
-      </c>
-      <c r="B58" t="s">
-        <v>303</v>
-      </c>
-      <c r="C58" t="s">
-        <v>244</v>
-      </c>
-      <c r="D58" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A59" t="s">
-        <v>306</v>
-      </c>
-      <c r="B59" t="s">
-        <v>303</v>
-      </c>
-      <c r="C59" t="s">
-        <v>244</v>
-      </c>
-      <c r="D59" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A60" t="s">
-        <v>308</v>
-      </c>
-      <c r="B60" t="s">
-        <v>303</v>
-      </c>
-      <c r="C60" t="s">
-        <v>244</v>
-      </c>
-      <c r="D60" t="s">
-        <v>296</v>
-      </c>
-      <c r="E60" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C61" t="s">
-        <v>258</v>
-      </c>
-      <c r="E61" t="s">
-        <v>259</v>
       </c>
     </row>
   </sheetData>
